--- a/TradingSimula_18-2022/TF-System#7_1R.xlsx
+++ b/TradingSimula_18-2022/TF-System#7_1R.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="EquityCurve" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EquityCurve" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <plotArea>
       <lineChart>
@@ -144,26 +144,26 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
           </marker>
           <cat>
             <numRef>
-              <f>'EquityCurve'!$A$3:$A$148</f>
+              <f>'EquityCurve'!$A$3:$A$296</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EquityCurve'!$B$2:$B$148</f>
+              <f>'EquityCurve'!$B$2:$B$296</f>
             </numRef>
           </val>
         </ser>
@@ -179,8 +179,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -206,8 +206,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -233,7 +233,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>2</col>
@@ -248,9 +248,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -561,12 +561,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B149"/>
+  <dimension ref="A1:B297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,1182 +591,2366 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>40207</v>
+        <v>36556</v>
       </c>
       <c r="B3" t="n">
-        <v>7408.000000000018</v>
+        <v>-52804.25000000037</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>40235</v>
+        <v>36585</v>
       </c>
       <c r="B4" t="n">
-        <v>-183.2999999999861</v>
+        <v>-246055.3250000005</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>40268</v>
+        <v>36616</v>
       </c>
       <c r="B5" t="n">
-        <v>7984.275000000009</v>
+        <v>-267199.7750000005</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>40298</v>
+        <v>36644</v>
       </c>
       <c r="B6" t="n">
-        <v>3351.55</v>
+        <v>-330860.7000000004</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>40326</v>
+        <v>36677</v>
       </c>
       <c r="B7" t="n">
-        <v>11851.49999999999</v>
+        <v>-352202.9249999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>40359</v>
+        <v>36707</v>
       </c>
       <c r="B8" t="n">
-        <v>15500.12500000003</v>
+        <v>-355963.0125</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>40389</v>
+        <v>36738</v>
       </c>
       <c r="B9" t="n">
-        <v>11450.37500000008</v>
+        <v>-383386.8124999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>40421</v>
+        <v>36769</v>
       </c>
       <c r="B10" t="n">
-        <v>15461.3500000001</v>
+        <v>-407895.3849999998</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>40451</v>
+        <v>36798</v>
       </c>
       <c r="B11" t="n">
-        <v>35222.15000000012</v>
+        <v>-382197.0099999998</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>40480</v>
+        <v>36830</v>
       </c>
       <c r="B12" t="n">
-        <v>65045.75000000012</v>
+        <v>-437079.1074999996</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>40512</v>
+        <v>36860</v>
       </c>
       <c r="B13" t="n">
-        <v>56758.07500000013</v>
+        <v>-457879.2074999993</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>40543</v>
+        <v>36889</v>
       </c>
       <c r="B14" t="n">
-        <v>52797.90000000015</v>
+        <v>-471193.9074999993</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>40574</v>
+        <v>36922</v>
       </c>
       <c r="B15" t="n">
-        <v>45159.00000000011</v>
+        <v>-539258.772499999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>40602</v>
+        <v>36950</v>
       </c>
       <c r="B16" t="n">
-        <v>57789.97500000011</v>
+        <v>-560417.2724999995</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>40633</v>
+        <v>36980</v>
       </c>
       <c r="B17" t="n">
-        <v>77672.7500000001</v>
+        <v>-580284.3899999993</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>40662</v>
+        <v>37011</v>
       </c>
       <c r="B18" t="n">
-        <v>152626.2750000001</v>
+        <v>-657063.6399999995</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>40694</v>
+        <v>37042</v>
       </c>
       <c r="B19" t="n">
-        <v>94439.90000000015</v>
+        <v>-657268.8374999993</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>40724</v>
+        <v>37071</v>
       </c>
       <c r="B20" t="n">
-        <v>89686.07500000014</v>
+        <v>-622148.4249999989</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>40753</v>
+        <v>37103</v>
       </c>
       <c r="B21" t="n">
-        <v>82037.47500000018</v>
+        <v>-553051.8999999991</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>40786</v>
+        <v>37134</v>
       </c>
       <c r="B22" t="n">
-        <v>85020.95000000014</v>
+        <v>-549948.2499999994</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>40816</v>
+        <v>37162</v>
       </c>
       <c r="B23" t="n">
-        <v>114508.0500000001</v>
+        <v>-388981.6874999994</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>40847</v>
+        <v>37195</v>
       </c>
       <c r="B24" t="n">
-        <v>79742.22500000018</v>
+        <v>-508848.6724999995</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>40877</v>
+        <v>37225</v>
       </c>
       <c r="B25" t="n">
-        <v>86684.52500000017</v>
+        <v>-545479.885</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>40907</v>
+        <v>37256</v>
       </c>
       <c r="B26" t="n">
-        <v>92990.32500000023</v>
+        <v>-633361.3100000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>40939</v>
+        <v>37287</v>
       </c>
       <c r="B27" t="n">
-        <v>81989.20000000026</v>
+        <v>-685393.6700000002</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>40968</v>
+        <v>37315</v>
       </c>
       <c r="B28" t="n">
-        <v>61441.47500000032</v>
+        <v>-753281.0725000004</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>40998</v>
+        <v>37343</v>
       </c>
       <c r="B29" t="n">
-        <v>69792.10000000034</v>
+        <v>-750636.7475000005</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>41029</v>
+        <v>37376</v>
       </c>
       <c r="B30" t="n">
-        <v>70438.3250000003</v>
+        <v>-823759.9375000002</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>41060</v>
+        <v>37407</v>
       </c>
       <c r="B31" t="n">
-        <v>98846.07500000032</v>
+        <v>-796572.9625000006</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>41089</v>
+        <v>37435</v>
       </c>
       <c r="B32" t="n">
-        <v>66512.92500000029</v>
+        <v>-848260.3200000006</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>41121</v>
+        <v>37468</v>
       </c>
       <c r="B33" t="n">
-        <v>79463.20000000032</v>
+        <v>-772726.3700000005</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>41152</v>
+        <v>37498</v>
       </c>
       <c r="B34" t="n">
-        <v>94359.75000000036</v>
+        <v>-840359.7450000007</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>41180</v>
+        <v>37529</v>
       </c>
       <c r="B35" t="n">
-        <v>112620.7500000003</v>
+        <v>-814439.3700000008</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>41213</v>
+        <v>37560</v>
       </c>
       <c r="B36" t="n">
-        <v>88594.35000000033</v>
+        <v>-926697.3575000007</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>41243</v>
+        <v>37589</v>
       </c>
       <c r="B37" t="n">
-        <v>85848.75000000029</v>
+        <v>-961589.9575000007</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B38" t="n">
-        <v>81969.37500000032</v>
+        <v>-1028735.107500001</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>41305</v>
+        <v>37652</v>
       </c>
       <c r="B39" t="n">
-        <v>80090.30000000038</v>
+        <v>-1026831.882500001</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>41333</v>
+        <v>37680</v>
       </c>
       <c r="B40" t="n">
-        <v>85497.10000000038</v>
+        <v>-1040606.357500001</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>41362</v>
+        <v>37711</v>
       </c>
       <c r="B41" t="n">
-        <v>87492.22500000038</v>
+        <v>-1081614.825000001</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>41394</v>
+        <v>37741</v>
       </c>
       <c r="B42" t="n">
-        <v>103308.1750000004</v>
+        <v>-1110575.125000001</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>41425</v>
+        <v>37771</v>
       </c>
       <c r="B43" t="n">
-        <v>109720.0500000004</v>
+        <v>-1145066.150000001</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>41453</v>
+        <v>37802</v>
       </c>
       <c r="B44" t="n">
-        <v>110593.8000000004</v>
+        <v>-1151042.875</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>41486</v>
+        <v>37833</v>
       </c>
       <c r="B45" t="n">
-        <v>106791.4500000004</v>
+        <v>-1156897.575</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>41516</v>
+        <v>37862</v>
       </c>
       <c r="B46" t="n">
-        <v>112186.8750000004</v>
+        <v>-1198490.775</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B47" t="n">
-        <v>94791.15000000039</v>
+        <v>-1209759.545</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>41578</v>
+        <v>37925</v>
       </c>
       <c r="B48" t="n">
-        <v>98224.4500000004</v>
+        <v>-1002605.715</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>41607</v>
+        <v>37953</v>
       </c>
       <c r="B49" t="n">
-        <v>99804.70000000038</v>
+        <v>-1232736.265</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B50" t="n">
-        <v>97994.75000000041</v>
+        <v>-1211564.98</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>41670</v>
+        <v>38016</v>
       </c>
       <c r="B51" t="n">
-        <v>90055.17500000045</v>
+        <v>-819318.3474999998</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>41698</v>
+        <v>38044</v>
       </c>
       <c r="B52" t="n">
-        <v>119753.3250000004</v>
+        <v>-502290.9974999998</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B53" t="n">
-        <v>117946.9750000005</v>
+        <v>-588485.2724999996</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>41759</v>
+        <v>38107</v>
       </c>
       <c r="B54" t="n">
-        <v>112153.2500000005</v>
+        <v>-1005456.122499999</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>41789</v>
+        <v>38135</v>
       </c>
       <c r="B55" t="n">
-        <v>107252.1250000005</v>
+        <v>-1090269.247499999</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B56" t="n">
-        <v>102405.9000000005</v>
+        <v>-1140392.742499999</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>41851</v>
+        <v>38198</v>
       </c>
       <c r="B57" t="n">
-        <v>107665.0000000005</v>
+        <v>-1162507.792499998</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>41880</v>
+        <v>38230</v>
       </c>
       <c r="B58" t="n">
-        <v>105187.6250000005</v>
+        <v>-1176090.717499998</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B59" t="n">
-        <v>127856.9250000005</v>
+        <v>-1128012.932499998</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>41943</v>
+        <v>38289</v>
       </c>
       <c r="B60" t="n">
-        <v>123952.5250000005</v>
+        <v>-1554522.964999998</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>41971</v>
+        <v>38321</v>
       </c>
       <c r="B61" t="n">
-        <v>127380.5750000005</v>
+        <v>-1577195.314999997</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B62" t="n">
-        <v>147878.9750000005</v>
+        <v>-1620957.489999997</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>42034</v>
+        <v>38383</v>
       </c>
       <c r="B63" t="n">
-        <v>164300.3500000005</v>
+        <v>-1738281.117499997</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>42062</v>
+        <v>38411</v>
       </c>
       <c r="B64" t="n">
-        <v>159734.4750000006</v>
+        <v>-1562514.667499997</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B65" t="n">
-        <v>165670.0000000006</v>
+        <v>-1585850.067499997</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>42124</v>
+        <v>38471</v>
       </c>
       <c r="B66" t="n">
-        <v>153101.7000000006</v>
+        <v>-1791113.739999996</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>42153</v>
+        <v>38503</v>
       </c>
       <c r="B67" t="n">
-        <v>146717.0000000006</v>
+        <v>-1658271.639999996</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B68" t="n">
-        <v>146536.6250000006</v>
+        <v>-1695658.792499996</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>42216</v>
+        <v>38562</v>
       </c>
       <c r="B69" t="n">
-        <v>158137.0750000006</v>
+        <v>-1720743.467499995</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>42247</v>
+        <v>38595</v>
       </c>
       <c r="B70" t="n">
-        <v>144740.4250000006</v>
+        <v>-1760741.769999995</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B71" t="n">
-        <v>144497.3500000006</v>
+        <v>-1787841.844999995</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>42307</v>
+        <v>38656</v>
       </c>
       <c r="B72" t="n">
-        <v>143435.1750000006</v>
+        <v>-1800615.944999995</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>42338</v>
+        <v>38686</v>
       </c>
       <c r="B73" t="n">
-        <v>159445.0000000006</v>
+        <v>-1540429.394999995</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>42369</v>
+        <v>38716</v>
       </c>
       <c r="B74" t="n">
-        <v>157567.7750000006</v>
+        <v>-1261128.847499995</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>42398</v>
+        <v>38748</v>
       </c>
       <c r="B75" t="n">
-        <v>157791.0500000006</v>
+        <v>-610721.922499995</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>42429</v>
+        <v>38776</v>
       </c>
       <c r="B76" t="n">
-        <v>175996.7250000006</v>
+        <v>-990771.3724999945</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B77" t="n">
-        <v>173932.7500000006</v>
+        <v>-410840.7849999933</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>42489</v>
+        <v>38835</v>
       </c>
       <c r="B78" t="n">
-        <v>183166.1000000006</v>
+        <v>1653361.765000007</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>42521</v>
+        <v>38868</v>
       </c>
       <c r="B79" t="n">
-        <v>176514.8000000007</v>
+        <v>1809902.692500006</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B80" t="n">
-        <v>180779.9000000007</v>
+        <v>1279417.967500007</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>42580</v>
+        <v>38929</v>
       </c>
       <c r="B81" t="n">
-        <v>186121.6500000007</v>
+        <v>1221292.257500008</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>42613</v>
+        <v>38960</v>
       </c>
       <c r="B82" t="n">
-        <v>174796.0250000007</v>
+        <v>1208501.182500008</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>42643</v>
+        <v>38989</v>
       </c>
       <c r="B83" t="n">
-        <v>172214.2000000008</v>
+        <v>1114790.732500008</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>42674</v>
+        <v>39021</v>
       </c>
       <c r="B84" t="n">
-        <v>170487.2250000007</v>
+        <v>618829.5575000083</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>42704</v>
+        <v>39051</v>
       </c>
       <c r="B85" t="n">
-        <v>172281.9750000008</v>
+        <v>652012.2075000084</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>42734</v>
+        <v>39080</v>
       </c>
       <c r="B86" t="n">
-        <v>177936.1000000007</v>
+        <v>550146.4825000078</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>42766</v>
+        <v>39113</v>
       </c>
       <c r="B87" t="n">
-        <v>166400.3750000007</v>
+        <v>1144489.432500009</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>42794</v>
+        <v>39141</v>
       </c>
       <c r="B88" t="n">
-        <v>162941.8500000008</v>
+        <v>602160.6150000077</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>42825</v>
+        <v>39171</v>
       </c>
       <c r="B89" t="n">
-        <v>155756.7500000008</v>
+        <v>305959.9650000086</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>42853</v>
+        <v>39202</v>
       </c>
       <c r="B90" t="n">
-        <v>153013.8250000008</v>
+        <v>1233870.280000009</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>42886</v>
+        <v>39233</v>
       </c>
       <c r="B91" t="n">
-        <v>152829.6000000008</v>
+        <v>601004.4800000092</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>42916</v>
+        <v>39262</v>
       </c>
       <c r="B92" t="n">
-        <v>153131.5250000007</v>
+        <v>572622.4800000095</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>42947</v>
+        <v>39294</v>
       </c>
       <c r="B93" t="n">
-        <v>153675.4750000008</v>
+        <v>441429.7025000104</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>42978</v>
+        <v>39325</v>
       </c>
       <c r="B94" t="n">
-        <v>137950.2250000008</v>
+        <v>413677.0775000112</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43007</v>
+        <v>39353</v>
       </c>
       <c r="B95" t="n">
-        <v>130325.6500000008</v>
+        <v>664773.712500011</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43039</v>
+        <v>39386</v>
       </c>
       <c r="B96" t="n">
-        <v>122256.4500000008</v>
+        <v>429154.6125000113</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43069</v>
+        <v>39416</v>
       </c>
       <c r="B97" t="n">
-        <v>114973.1250000008</v>
+        <v>108108.1350000118</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43098</v>
+        <v>39447</v>
       </c>
       <c r="B98" t="n">
-        <v>109156.9000000008</v>
+        <v>73832.52250001165</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43131</v>
+        <v>39478</v>
       </c>
       <c r="B99" t="n">
-        <v>120181.1000000008</v>
+        <v>-187717.7024999881</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43159</v>
+        <v>39507</v>
       </c>
       <c r="B100" t="n">
-        <v>110321.6000000008</v>
+        <v>1258880.895000012</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43188</v>
+        <v>39538</v>
       </c>
       <c r="B101" t="n">
-        <v>107729.3250000008</v>
+        <v>41848.06500001201</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43220</v>
+        <v>39568</v>
       </c>
       <c r="B102" t="n">
-        <v>107683.5000000007</v>
+        <v>31585.93500001203</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43251</v>
+        <v>39598</v>
       </c>
       <c r="B103" t="n">
-        <v>108718.6750000007</v>
+        <v>-162782.717499989</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43280</v>
+        <v>39629</v>
       </c>
       <c r="B104" t="n">
-        <v>112948.2500000007</v>
+        <v>-219179.3549999885</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43312</v>
+        <v>39660</v>
       </c>
       <c r="B105" t="n">
-        <v>114065.2500000007</v>
+        <v>-651121.8524999903</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43343</v>
+        <v>39689</v>
       </c>
       <c r="B106" t="n">
-        <v>124340.2750000007</v>
+        <v>568254.1175000097</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43371</v>
+        <v>39721</v>
       </c>
       <c r="B107" t="n">
-        <v>119768.1000000007</v>
+        <v>1227122.267500011</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43404</v>
+        <v>39752</v>
       </c>
       <c r="B108" t="n">
-        <v>116843.8000000007</v>
+        <v>938121.8925000096</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>43434</v>
+        <v>39780</v>
       </c>
       <c r="B109" t="n">
-        <v>127398.3750000007</v>
+        <v>906139.7725000097</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B110" t="n">
-        <v>144489.5250000008</v>
+        <v>672558.3925000103</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>43496</v>
+        <v>39843</v>
       </c>
       <c r="B111" t="n">
-        <v>133310.7000000008</v>
+        <v>603049.4075000107</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>43524</v>
+        <v>39871</v>
       </c>
       <c r="B112" t="n">
-        <v>133488.0750000008</v>
+        <v>446435.8875000111</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>43553</v>
+        <v>39903</v>
       </c>
       <c r="B113" t="n">
-        <v>125904.5500000008</v>
+        <v>170186.9400000106</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>43585</v>
+        <v>39933</v>
       </c>
       <c r="B114" t="n">
-        <v>129464.9500000008</v>
+        <v>-13186.6599999895</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>43616</v>
+        <v>39962</v>
       </c>
       <c r="B115" t="n">
-        <v>133719.3750000008</v>
+        <v>1172536.39000001</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>43644</v>
+        <v>39994</v>
       </c>
       <c r="B116" t="n">
-        <v>139983.7250000008</v>
+        <v>279967.2150000097</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>43677</v>
+        <v>40025</v>
       </c>
       <c r="B117" t="n">
-        <v>135131.4000000009</v>
+        <v>761123.7050000108</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>43707</v>
+        <v>40056</v>
       </c>
       <c r="B118" t="n">
-        <v>150820.8750000008</v>
+        <v>828600.4550000109</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B119" t="n">
-        <v>136836.8000000009</v>
+        <v>1454995.505000011</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>43769</v>
+        <v>40116</v>
       </c>
       <c r="B120" t="n">
-        <v>128686.8000000009</v>
+        <v>1516844.702500012</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>43798</v>
+        <v>40147</v>
       </c>
       <c r="B121" t="n">
-        <v>134273.8000000009</v>
+        <v>1502929.302500012</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B122" t="n">
-        <v>139485.1500000009</v>
+        <v>1508059.767500011</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>43861</v>
+        <v>40207</v>
       </c>
       <c r="B123" t="n">
-        <v>151767.3250000009</v>
+        <v>1521186.207500012</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>43889</v>
+        <v>40235</v>
       </c>
       <c r="B124" t="n">
-        <v>158236.3000000009</v>
+        <v>1300705.107500013</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B125" t="n">
-        <v>187468.7000000009</v>
+        <v>1305368.357500014</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>43951</v>
+        <v>40298</v>
       </c>
       <c r="B126" t="n">
-        <v>186715.0500000009</v>
+        <v>1283460.932500014</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>43980</v>
+        <v>40326</v>
       </c>
       <c r="B127" t="n">
-        <v>183558.6500000009</v>
+        <v>1753891.082500015</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B128" t="n">
-        <v>185351.3000000009</v>
+        <v>1793085.395000015</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44043</v>
+        <v>40389</v>
       </c>
       <c r="B129" t="n">
-        <v>233523.8000000009</v>
+        <v>2120802.395000014</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44074</v>
+        <v>40421</v>
       </c>
       <c r="B130" t="n">
-        <v>231141.8000000008</v>
+        <v>1824950.305000015</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B131" t="n">
-        <v>229959.7500000008</v>
+        <v>1686453.682500019</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44134</v>
+        <v>40480</v>
       </c>
       <c r="B132" t="n">
-        <v>233068.0750000008</v>
+        <v>1671010.430000021</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44165</v>
+        <v>40512</v>
       </c>
       <c r="B133" t="n">
-        <v>233699.3000000008</v>
+        <v>1650241.060000023</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B134" t="n">
-        <v>226350.3000000009</v>
+        <v>1029212.245000023</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44225</v>
+        <v>40574</v>
       </c>
       <c r="B135" t="n">
-        <v>225845.0500000009</v>
+        <v>339127.8925000239</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44253</v>
+        <v>40602</v>
       </c>
       <c r="B136" t="n">
-        <v>223456.1000000009</v>
+        <v>265843.3625000257</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44286</v>
+        <v>40633</v>
       </c>
       <c r="B137" t="n">
-        <v>219370.9500000009</v>
+        <v>136968.8425000278</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44316</v>
+        <v>40662</v>
       </c>
       <c r="B138" t="n">
-        <v>217682.850000001</v>
+        <v>5039625.607500026</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44344</v>
+        <v>40694</v>
       </c>
       <c r="B139" t="n">
-        <v>232284.3750000009</v>
+        <v>905359.5325000295</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44377</v>
+        <v>40724</v>
       </c>
       <c r="B140" t="n">
-        <v>225348.2750000009</v>
+        <v>876659.192500029</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44407</v>
+        <v>40753</v>
       </c>
       <c r="B141" t="n">
-        <v>226421.4000000009</v>
+        <v>579904.3925000294</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44439</v>
+        <v>40786</v>
       </c>
       <c r="B142" t="n">
-        <v>225737.3750000009</v>
+        <v>-1654065.482499972</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44469</v>
+        <v>40816</v>
       </c>
       <c r="B143" t="n">
-        <v>239340.1750000009</v>
+        <v>2853042.652500028</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44498</v>
+        <v>40847</v>
       </c>
       <c r="B144" t="n">
-        <v>229077.025000001</v>
+        <v>-19445.49999997135</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44530</v>
+        <v>40877</v>
       </c>
       <c r="B145" t="n">
-        <v>218685.775000001</v>
+        <v>-47271.46999997137</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44561</v>
+        <v>40907</v>
       </c>
       <c r="B146" t="n">
-        <v>220274.9250000009</v>
+        <v>-431656.0924999714</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44592</v>
+        <v>40939</v>
       </c>
       <c r="B147" t="n">
-        <v>228926.875000001</v>
+        <v>-611237.4299999706</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44620</v>
+        <v>40968</v>
       </c>
       <c r="B148" t="n">
-        <v>238681.875000001</v>
+        <v>-2375804.342499972</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
+        <v>40998</v>
+      </c>
+      <c r="B149" t="n">
+        <v>-2733096.072499971</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>41029</v>
+      </c>
+      <c r="B150" t="n">
+        <v>-3240854.177499971</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>41060</v>
+      </c>
+      <c r="B151" t="n">
+        <v>-2340314.352499968</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>41089</v>
+      </c>
+      <c r="B152" t="n">
+        <v>-4142616.679999969</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>41121</v>
+      </c>
+      <c r="B153" t="n">
+        <v>-4076608.54999997</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>41152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>-2893036.672499971</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>41180</v>
+      </c>
+      <c r="B155" t="n">
+        <v>-1068470.422499971</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>41213</v>
+      </c>
+      <c r="B156" t="n">
+        <v>-2645305.45499997</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>41243</v>
+      </c>
+      <c r="B157" t="n">
+        <v>-3205995.709999971</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>41274</v>
+      </c>
+      <c r="B158" t="n">
+        <v>-3260348.60999997</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>41305</v>
+      </c>
+      <c r="B159" t="n">
+        <v>-3318557.032499968</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>41333</v>
+      </c>
+      <c r="B160" t="n">
+        <v>-2649914.142499967</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>41361</v>
+      </c>
+      <c r="B161" t="n">
+        <v>-2601692.429999969</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>41394</v>
+      </c>
+      <c r="B162" t="n">
+        <v>-764733.7699999692</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>41425</v>
+      </c>
+      <c r="B163" t="n">
+        <v>75299.1275000303</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>41453</v>
+      </c>
+      <c r="B164" t="n">
+        <v>-8303.787499969627</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>41486</v>
+      </c>
+      <c r="B165" t="n">
+        <v>-254523.3024999695</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>41516</v>
+      </c>
+      <c r="B166" t="n">
+        <v>550607.9550000323</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>41547</v>
+      </c>
+      <c r="B167" t="n">
+        <v>-78129.41749996875</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>41578</v>
+      </c>
+      <c r="B168" t="n">
+        <v>-81238.04249996871</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>41607</v>
+      </c>
+      <c r="B169" t="n">
+        <v>-208995.0524999682</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>41639</v>
+      </c>
+      <c r="B170" t="n">
+        <v>-203758.0424999674</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>41670</v>
+      </c>
+      <c r="B171" t="n">
+        <v>-192620.2799999667</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>41698</v>
+      </c>
+      <c r="B172" t="n">
+        <v>-290065.0299999666</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>41729</v>
+      </c>
+      <c r="B173" t="n">
+        <v>-275869.054999967</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>41759</v>
+      </c>
+      <c r="B174" t="n">
+        <v>-406929.1249999665</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>41789</v>
+      </c>
+      <c r="B175" t="n">
+        <v>-445691.6749999665</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>41820</v>
+      </c>
+      <c r="B176" t="n">
+        <v>-481172.1649999649</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>41851</v>
+      </c>
+      <c r="B177" t="n">
+        <v>-500525.8249999637</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>41880</v>
+      </c>
+      <c r="B178" t="n">
+        <v>-527544.6224999635</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>41912</v>
+      </c>
+      <c r="B179" t="n">
+        <v>-526063.6824999629</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>41943</v>
+      </c>
+      <c r="B180" t="n">
+        <v>-821583.3724999626</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>41971</v>
+      </c>
+      <c r="B181" t="n">
+        <v>-909482.7724999635</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>42004</v>
+      </c>
+      <c r="B182" t="n">
+        <v>-1086499.902499963</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>42034</v>
+      </c>
+      <c r="B183" t="n">
+        <v>-523220.8749999633</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>42062</v>
+      </c>
+      <c r="B184" t="n">
+        <v>-1014388.627499963</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>42094</v>
+      </c>
+      <c r="B185" t="n">
+        <v>-1023097.374999963</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>42124</v>
+      </c>
+      <c r="B186" t="n">
+        <v>-1362763.482499963</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>42153</v>
+      </c>
+      <c r="B187" t="n">
+        <v>-1386807.967499963</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>42185</v>
+      </c>
+      <c r="B188" t="n">
+        <v>-1455695.702499962</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>42216</v>
+      </c>
+      <c r="B189" t="n">
+        <v>-1522405.252499961</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>42247</v>
+      </c>
+      <c r="B190" t="n">
+        <v>-1809281.024999961</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>42277</v>
+      </c>
+      <c r="B191" t="n">
+        <v>-1818966.367499962</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>42307</v>
+      </c>
+      <c r="B192" t="n">
+        <v>-1983508.472499961</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>42338</v>
+      </c>
+      <c r="B193" t="n">
+        <v>-991596.1624999604</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>42369</v>
+      </c>
+      <c r="B194" t="n">
+        <v>-1087793.532499961</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>42398</v>
+      </c>
+      <c r="B195" t="n">
+        <v>-1008719.187499962</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>42429</v>
+      </c>
+      <c r="B196" t="n">
+        <v>-1103894.987499962</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>42460</v>
+      </c>
+      <c r="B197" t="n">
+        <v>-1148386.982499962</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>42489</v>
+      </c>
+      <c r="B198" t="n">
+        <v>-1173882.782499961</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>42521</v>
+      </c>
+      <c r="B199" t="n">
+        <v>-1349973.372499961</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>42551</v>
+      </c>
+      <c r="B200" t="n">
+        <v>-1579643.37249996</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>42580</v>
+      </c>
+      <c r="B201" t="n">
+        <v>-898091.3724999594</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>42613</v>
+      </c>
+      <c r="B202" t="n">
+        <v>-1117567.492499959</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>42643</v>
+      </c>
+      <c r="B203" t="n">
+        <v>-1249008.334999959</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>42674</v>
+      </c>
+      <c r="B204" t="n">
+        <v>-1437513.384999959</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>42704</v>
+      </c>
+      <c r="B205" t="n">
+        <v>-600308.6399999581</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>42734</v>
+      </c>
+      <c r="B206" t="n">
+        <v>-1026712.924999958</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>42766</v>
+      </c>
+      <c r="B207" t="n">
+        <v>-1040862.677499959</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>42794</v>
+      </c>
+      <c r="B208" t="n">
+        <v>-1026496.607499958</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>42825</v>
+      </c>
+      <c r="B209" t="n">
+        <v>-1064545.182499958</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>42853</v>
+      </c>
+      <c r="B210" t="n">
+        <v>-1143589.632499958</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="B211" t="n">
+        <v>-1169197.017499958</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>42916</v>
+      </c>
+      <c r="B212" t="n">
+        <v>-1126643.842499958</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>42947</v>
+      </c>
+      <c r="B213" t="n">
+        <v>-1274153.747499958</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>42978</v>
+      </c>
+      <c r="B214" t="n">
+        <v>-1443050.494999956</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>43007</v>
+      </c>
+      <c r="B215" t="n">
+        <v>-1577924.669999956</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>43039</v>
+      </c>
+      <c r="B216" t="n">
+        <v>-1590037.119999956</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>43069</v>
+      </c>
+      <c r="B217" t="n">
+        <v>-1632195.019999957</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>43098</v>
+      </c>
+      <c r="B218" t="n">
+        <v>-1379931.904999956</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>43131</v>
+      </c>
+      <c r="B219" t="n">
+        <v>-1595555.034999956</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>43159</v>
+      </c>
+      <c r="B220" t="n">
+        <v>-1719854.572499956</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>43188</v>
+      </c>
+      <c r="B221" t="n">
+        <v>-1853362.824999955</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>43220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>-1857551.369999955</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>43251</v>
+      </c>
+      <c r="B223" t="n">
+        <v>-1994092.344999956</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>43280</v>
+      </c>
+      <c r="B224" t="n">
+        <v>-2069262.994999956</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>43312</v>
+      </c>
+      <c r="B225" t="n">
+        <v>-2009321.744999955</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>43343</v>
+      </c>
+      <c r="B226" t="n">
+        <v>-1881934.322499956</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>43371</v>
+      </c>
+      <c r="B227" t="n">
+        <v>-1923299.307499955</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>43404</v>
+      </c>
+      <c r="B228" t="n">
+        <v>-1959524.122499955</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>43434</v>
+      </c>
+      <c r="B229" t="n">
+        <v>-2112237.142499956</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>43465</v>
+      </c>
+      <c r="B230" t="n">
+        <v>-1940230.932499956</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>43496</v>
+      </c>
+      <c r="B231" t="n">
+        <v>-2224016.227499956</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>43524</v>
+      </c>
+      <c r="B232" t="n">
+        <v>-2087015.427499954</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>43553</v>
+      </c>
+      <c r="B233" t="n">
+        <v>-2334320.002499955</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>43585</v>
+      </c>
+      <c r="B234" t="n">
+        <v>-2405942.919999955</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>43616</v>
+      </c>
+      <c r="B235" t="n">
+        <v>-2643099.319999954</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>43644</v>
+      </c>
+      <c r="B236" t="n">
+        <v>-2737610.559999954</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>43677</v>
+      </c>
+      <c r="B237" t="n">
+        <v>-2346907.724999954</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B238" t="n">
+        <v>-1463983.214999954</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>43738</v>
+      </c>
+      <c r="B239" t="n">
+        <v>-1867144.669999953</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>43769</v>
+      </c>
+      <c r="B240" t="n">
+        <v>-1947972.369999953</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>43798</v>
+      </c>
+      <c r="B241" t="n">
+        <v>-2003544.489999951</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>43830</v>
+      </c>
+      <c r="B242" t="n">
+        <v>-1766486.344999953</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>43861</v>
+      </c>
+      <c r="B243" t="n">
+        <v>-1579525.744999951</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>43889</v>
+      </c>
+      <c r="B244" t="n">
+        <v>-1372461.004999951</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>43921</v>
+      </c>
+      <c r="B245" t="n">
+        <v>74181.07000004911</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>43951</v>
+      </c>
+      <c r="B246" t="n">
+        <v>-509793.3799999511</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B247" t="n">
+        <v>-666711.6999999506</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B248" t="n">
+        <v>-681459.7174999502</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B249" t="n">
+        <v>1196283.03250005</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>44074</v>
+      </c>
+      <c r="B250" t="n">
+        <v>881084.48500005</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>44104</v>
+      </c>
+      <c r="B251" t="n">
+        <v>505335.6850000498</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>44134</v>
+      </c>
+      <c r="B252" t="n">
+        <v>215634.2750000501</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>44165</v>
+      </c>
+      <c r="B253" t="n">
+        <v>235699.7500000492</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B254" t="n">
+        <v>-301101.4299999499</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>44225</v>
+      </c>
+      <c r="B255" t="n">
+        <v>-307034.0099999497</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>44253</v>
+      </c>
+      <c r="B256" t="n">
+        <v>-1088898.909999949</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="B257" t="n">
+        <v>-1750993.599999948</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>44316</v>
+      </c>
+      <c r="B258" t="n">
+        <v>-1557419.084999949</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>44344</v>
+      </c>
+      <c r="B259" t="n">
+        <v>-1696236.679999948</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="B260" t="n">
+        <v>-1783754.864999949</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>44407</v>
+      </c>
+      <c r="B261" t="n">
+        <v>-2044644.034999948</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>44439</v>
+      </c>
+      <c r="B262" t="n">
+        <v>-2003534.637499948</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>44469</v>
+      </c>
+      <c r="B263" t="n">
+        <v>-2412654.067499946</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>44498</v>
+      </c>
+      <c r="B264" t="n">
+        <v>-2557252.167499947</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="B265" t="n">
+        <v>-2756421.217499947</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>44561</v>
+      </c>
+      <c r="B266" t="n">
+        <v>-3352708.629999945</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="B267" t="n">
+        <v>-3496487.894999944</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>44620</v>
+      </c>
+      <c r="B268" t="n">
+        <v>-3562109.319999944</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
         <v>44651</v>
       </c>
-      <c r="B149" t="n">
-        <v>259086.400000001</v>
+      <c r="B269" t="n">
+        <v>-4067520.927499944</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="B270" t="n">
+        <v>-3553878.352499944</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B271" t="n">
+        <v>-3618098.709999942</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B272" t="n">
+        <v>-3479522.054999941</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>44771</v>
+      </c>
+      <c r="B273" t="n">
+        <v>-2983544.379999942</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B274" t="n">
+        <v>-3284946.612499941</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>44834</v>
+      </c>
+      <c r="B275" t="n">
+        <v>-3118776.66249994</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B276" t="n">
+        <v>-3308500.80749994</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="B277" t="n">
+        <v>-3664024.707499939</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>44925</v>
+      </c>
+      <c r="B278" t="n">
+        <v>-3758318.287499937</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B279" t="n">
+        <v>-3219331.859999936</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="B280" t="n">
+        <v>-3858683.274999934</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>45016</v>
+      </c>
+      <c r="B281" t="n">
+        <v>-3823871.524999934</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B282" t="n">
+        <v>-3954876.199999932</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="B283" t="n">
+        <v>-4789420.484999931</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="B284" t="n">
+        <v>-4855893.359999931</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B285" t="n">
+        <v>-4775592.754999929</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B286" t="n">
+        <v>-5182454.372499928</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="B287" t="n">
+        <v>-5156650.822499928</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B288" t="n">
+        <v>-5184160.934999927</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B289" t="n">
+        <v>-4399361.709999926</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="B290" t="n">
+        <v>-4899665.279999928</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="B291" t="n">
+        <v>-5380303.717499927</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="B292" t="n">
+        <v>-5364884.792499927</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="B293" t="n">
+        <v>-5669510.047499926</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B294" t="n">
+        <v>-6060442.037499925</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="B295" t="n">
+        <v>-6062724.379999924</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B296" t="n">
+        <v>-6060284.829999924</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B297" t="n">
+        <v>-5965411.334999924</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>